--- a/Solicitud correos prueba.xlsx
+++ b/Solicitud correos prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecrcampus-my.sharepoint.com/personal/carlos_perezc_ecr_edu_co/Documents/Backup ECR Tecnologia/Documents/GitHub/UserAutomationService/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="34" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9BEAC4-2F32-421A-9385-49264A31B452}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RlsOItVjzIoOeYUFU/eLw5DQouYEYDvsGdSxxjpsn7Vqy/bWq+hBVjSLC/Rv1KTSkLjsk4SBD6qU7dIN8cKa0Q==" workbookSaltValue="wbbWpA/jt21F3SOY0vH1TQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>Escuela Colombiana de Rehabilitación</t>
   </si>
@@ -365,9 +365,6 @@
     <t>SEBASTIAN ORLANDO</t>
   </si>
   <si>
-    <t>ANDRÉS MATEO</t>
-  </si>
-  <si>
     <t>AMAYA ZÚÑIGA</t>
   </si>
   <si>
@@ -389,9 +386,6 @@
     <t>RODRIGUEZ NIVIA</t>
   </si>
   <si>
-    <t>RODRÍGUEZ RIVERA</t>
-  </si>
-  <si>
     <t>ESPECIALIZACIÓN EN TERAPIA MANUAL  (610 )</t>
   </si>
   <si>
@@ -416,9 +410,6 @@
     <t>vanessarodriguez@ecr.edu.co</t>
   </si>
   <si>
-    <t>marori1108@gmail.com</t>
-  </si>
-  <si>
     <t>C.C</t>
   </si>
   <si>
@@ -426,13 +417,67 @@
   </si>
   <si>
     <t>Apellido</t>
+  </si>
+  <si>
+    <t>ezio auditore</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>ezioauditore@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolás</t>
+  </si>
+  <si>
+    <t>Maquiavelo</t>
+  </si>
+  <si>
+    <t>nicolasmaquiavelo@gmail.com</t>
+  </si>
+  <si>
+    <t>Michelangelo</t>
+  </si>
+  <si>
+    <t>Buonarroti</t>
+  </si>
+  <si>
+    <t>michelangelobuonarroti@gmail.com</t>
+  </si>
+  <si>
+    <t>Dante</t>
+  </si>
+  <si>
+    <t>Inferno</t>
+  </si>
+  <si>
+    <t>danteinferno@gmail.com</t>
+  </si>
+  <si>
+    <t>Sandro</t>
+  </si>
+  <si>
+    <t>Botticelli</t>
+  </si>
+  <si>
+    <t>sandrobotticelli@gmail.com</t>
+  </si>
+  <si>
+    <t>Galileo</t>
+  </si>
+  <si>
+    <t>Galilei</t>
+  </si>
+  <si>
+    <t>galileogalilei@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,6 +561,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -697,7 +750,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -779,6 +832,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -808,12 +871,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -898,6 +955,10 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1166,11 +1227,11 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A14" sqref="A14"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1198,15 +1259,15 @@
     <col min="21" max="16384" width="9.1796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="40" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:20" s="30" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="17" t="s">
         <v>2</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C1" s="26" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D1" s="27" t="s">
         <v>3</v>
@@ -1217,7 +1278,7 @@
       <c r="F1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="39" t="s">
+      <c r="G1" s="29" t="s">
         <v>6</v>
       </c>
       <c r="H1" s="28" t="s">
@@ -1247,7 +1308,7 @@
         <v>58</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E2" s="16">
         <v>1000227618</v>
@@ -1285,7 +1346,7 @@
         <v>59</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E3" s="16">
         <v>1000214175</v>
@@ -1323,7 +1384,7 @@
         <v>60</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E4" s="16">
         <v>1000373017</v>
@@ -1361,7 +1422,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E5" s="16">
         <v>1010034368</v>
@@ -1399,7 +1460,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E6" s="16">
         <v>1002634900</v>
@@ -1437,7 +1498,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" s="16">
         <v>1019066112</v>
@@ -1475,7 +1536,7 @@
         <v>64</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E8" s="16">
         <v>1003479182</v>
@@ -1513,7 +1574,7 @@
         <v>65</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E9" s="16">
         <v>1140836363</v>
@@ -1551,7 +1612,7 @@
         <v>66</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E10" s="16">
         <v>1007696307</v>
@@ -1586,10 +1647,10 @@
         <v>77</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E11" s="16">
         <v>38600274</v>
@@ -1598,10 +1659,10 @@
         <v>11</v>
       </c>
       <c r="G11" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H11" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="I11"/>
       <c r="J11"/>
@@ -1624,10 +1685,10 @@
         <v>78</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E12" s="16">
         <v>1014295995</v>
@@ -1636,10 +1697,10 @@
         <v>11</v>
       </c>
       <c r="G12" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H12" s="24" t="s">
         <v>92</v>
-      </c>
-      <c r="H12" s="24" t="s">
-        <v>94</v>
       </c>
       <c r="I12"/>
       <c r="J12"/>
@@ -1662,10 +1723,10 @@
         <v>79</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E13" s="16">
         <v>1000506141</v>
@@ -1674,10 +1735,10 @@
         <v>11</v>
       </c>
       <c r="G13" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H13" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="I13"/>
       <c r="J13"/>
@@ -1700,10 +1761,10 @@
         <v>80</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E14" s="16">
         <v>45521464</v>
@@ -1712,10 +1773,10 @@
         <v>11</v>
       </c>
       <c r="G14" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H14" s="23" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="I14"/>
       <c r="J14"/>
@@ -1738,10 +1799,10 @@
         <v>81</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E15" s="16">
         <v>1053611435</v>
@@ -1750,10 +1811,10 @@
         <v>11</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H15" s="24" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I15"/>
       <c r="J15"/>
@@ -1776,10 +1837,10 @@
         <v>82</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E16" s="16">
         <v>1010029988</v>
@@ -1788,10 +1849,10 @@
         <v>11</v>
       </c>
       <c r="G16" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H16" s="24" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I16"/>
       <c r="J16"/>
@@ -1814,10 +1875,10 @@
         <v>80</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D17" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E17" s="16">
         <v>1019104024</v>
@@ -1826,10 +1887,10 @@
         <v>11</v>
       </c>
       <c r="G17" s="20" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="H17" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I17"/>
       <c r="J17"/>
@@ -1849,25 +1910,25 @@
         <v>34</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>83</v>
+        <v>101</v>
       </c>
       <c r="C18" s="20" t="s">
-        <v>91</v>
+        <v>102</v>
       </c>
       <c r="D18" s="21" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E18" s="16">
-        <v>1003635469</v>
+        <v>1000000001</v>
       </c>
       <c r="F18" s="16" t="s">
         <v>11</v>
       </c>
       <c r="G18" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="H18" s="24" t="s">
-        <v>100</v>
+        <v>90</v>
+      </c>
+      <c r="H18" s="23" t="s">
+        <v>103</v>
       </c>
       <c r="I18"/>
       <c r="J18"/>
@@ -1882,21 +1943,217 @@
       <c r="S18"/>
       <c r="T18"/>
     </row>
+    <row r="19" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E19" s="16">
+        <v>1000000002</v>
+      </c>
+      <c r="F19" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I19"/>
+      <c r="J19"/>
+      <c r="K19"/>
+      <c r="L19"/>
+      <c r="M19"/>
+      <c r="N19"/>
+      <c r="O19"/>
+      <c r="P19"/>
+      <c r="Q19"/>
+      <c r="R19"/>
+      <c r="S19"/>
+      <c r="T19"/>
+    </row>
+    <row r="20" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>108</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1000000003</v>
+      </c>
+      <c r="F20" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H20" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I20"/>
+      <c r="J20"/>
+      <c r="K20"/>
+      <c r="L20"/>
+      <c r="M20"/>
+      <c r="N20"/>
+      <c r="O20"/>
+      <c r="P20"/>
+      <c r="Q20"/>
+      <c r="R20"/>
+      <c r="S20"/>
+      <c r="T20"/>
+    </row>
+    <row r="21" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E21" s="16">
+        <v>1000000004</v>
+      </c>
+      <c r="F21" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H21" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="I21"/>
+      <c r="J21"/>
+      <c r="K21"/>
+      <c r="L21"/>
+      <c r="M21"/>
+      <c r="N21"/>
+      <c r="O21"/>
+      <c r="P21"/>
+      <c r="Q21"/>
+      <c r="R21"/>
+      <c r="S21"/>
+      <c r="T21"/>
+    </row>
+    <row r="22" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>113</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E22" s="16">
+        <v>1000000005</v>
+      </c>
+      <c r="F22" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H22" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="I22"/>
+      <c r="J22"/>
+      <c r="K22"/>
+      <c r="L22"/>
+      <c r="M22"/>
+      <c r="N22"/>
+      <c r="O22"/>
+      <c r="P22"/>
+      <c r="Q22"/>
+      <c r="R22"/>
+      <c r="S22"/>
+      <c r="T22"/>
+    </row>
+    <row r="23" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E23" s="16">
+        <v>1000000006</v>
+      </c>
+      <c r="F23" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H23" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I23"/>
+      <c r="J23"/>
+      <c r="K23"/>
+      <c r="L23"/>
+      <c r="M23"/>
+      <c r="N23"/>
+      <c r="O23"/>
+      <c r="P23"/>
+      <c r="Q23"/>
+      <c r="R23"/>
+      <c r="S23"/>
+      <c r="T23"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E19:E1048576 E1">
+  <conditionalFormatting sqref="E24:E1048576 E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D18" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
       <formula1>"  C.C,C.E"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="H14" r:id="rId1" xr:uid="{7FB6ED01-29A3-429D-800C-35964F7AA868}"/>
+    <hyperlink ref="H19" r:id="rId2" xr:uid="{954CC9C7-1400-4CDB-B940-AD32EF416845}"/>
+    <hyperlink ref="H18" r:id="rId3" xr:uid="{7536DEE8-064B-40AA-B689-65B08B66B015}"/>
+    <hyperlink ref="H20" r:id="rId4" xr:uid="{528E2B77-B679-4197-A5DC-C760C3A1FC6F}"/>
+    <hyperlink ref="H21" r:id="rId5" xr:uid="{FFC5DFBF-96D6-4958-B2C1-6CE7C345AEE1}"/>
+    <hyperlink ref="H22" r:id="rId6" xr:uid="{2216D0DB-0C1D-4AC2-AA74-11ED5C4BE61A}"/>
+    <hyperlink ref="H23" r:id="rId7" xr:uid="{579B0E13-F803-480F-AAF1-5CBF8DFDDFAC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
-  <legacyDrawing r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <legacyDrawing r:id="rId9"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -1904,13 +2161,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F18</xm:sqref>
+          <xm:sqref>F2:F23</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A18</xm:sqref>
+          <xm:sqref>A2:A23</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -1963,73 +2220,73 @@
       <c r="B5" s="4"/>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="29" t="s">
+      <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="B6" s="29"/>
+      <c r="B6" s="32"/>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="35" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="31"/>
-      <c r="B8" s="33"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="36"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A9" s="30" t="s">
+      <c r="A9" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="36" t="s">
+      <c r="B9" s="39" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A10" s="31"/>
-      <c r="B10" s="32"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="35"/>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="B11" s="37" t="s">
+      <c r="B11" s="40" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A12" s="31"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="41"/>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="39" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A14" s="31"/>
-      <c r="B14" s="32"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="35"/>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="40" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" s="31"/>
-      <c r="B16" s="38"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="41"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="30" t="s">
+      <c r="A17" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B17" s="9" t="s">
@@ -2037,34 +2294,34 @@
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="31"/>
+      <c r="A18" s="34"/>
       <c r="B18" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="37" t="s">
+      <c r="B19" s="40" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="31"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="41"/>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="B21" s="34" t="s">
+      <c r="B21" s="37" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="31"/>
-      <c r="B22" s="35"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="38"/>
     </row>
     <row r="23" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A23" s="11" t="s">

--- a/Solicitud correos prueba.xlsx
+++ b/Solicitud correos prueba.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29426"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecrcampus-my.sharepoint.com/personal/carlos_perezc_ecr_edu_co/Documents/Backup ECR Tecnologia/Documents/GitHub/UserAutomationService/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="34" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1D9BEAC4-2F32-421A-9385-49264A31B452}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17BC385-8C02-4DB4-8A53-2335586956AE}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RlsOItVjzIoOeYUFU/eLw5DQouYEYDvsGdSxxjpsn7Vqy/bWq+hBVjSLC/Rv1KTSkLjsk4SBD6qU7dIN8cKa0Q==" workbookSaltValue="wbbWpA/jt21F3SOY0vH1TQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
   <si>
     <t>Escuela Colombiana de Rehabilitación</t>
   </si>
@@ -452,25 +452,25 @@
     <t>Inferno</t>
   </si>
   <si>
-    <t>danteinferno@gmail.com</t>
-  </si>
-  <si>
     <t>Sandro</t>
   </si>
   <si>
     <t>Botticelli</t>
   </si>
   <si>
-    <t>sandrobotticelli@gmail.com</t>
-  </si>
-  <si>
     <t>Galileo</t>
   </si>
   <si>
     <t>Galilei</t>
   </si>
   <si>
-    <t>galileogalilei@gmail.com</t>
+    <t>Pedro</t>
+  </si>
+  <si>
+    <t>Perez</t>
+  </si>
+  <si>
+    <t>carpeca1998@hotmail.com</t>
   </si>
 </sst>
 </file>
@@ -1227,11 +1227,11 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T23"/>
+  <dimension ref="A1:T24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="G1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2033,7 +2033,7 @@
         <v>98</v>
       </c>
       <c r="E21" s="16">
-        <v>1000000004</v>
+        <v>1000000014</v>
       </c>
       <c r="F21" s="16" t="s">
         <v>11</v>
@@ -2042,7 +2042,7 @@
         <v>90</v>
       </c>
       <c r="H21" s="23" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I21"/>
       <c r="J21"/>
@@ -2062,16 +2062,16 @@
         <v>34</v>
       </c>
       <c r="B22" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="20" t="s">
         <v>113</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>114</v>
       </c>
       <c r="D22" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E22" s="16">
-        <v>1000000005</v>
+        <v>1000000015</v>
       </c>
       <c r="F22" s="16" t="s">
         <v>11</v>
@@ -2080,7 +2080,7 @@
         <v>90</v>
       </c>
       <c r="H22" s="23" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="I22"/>
       <c r="J22"/>
@@ -2100,16 +2100,16 @@
         <v>34</v>
       </c>
       <c r="B23" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D23" s="21" t="s">
         <v>98</v>
       </c>
       <c r="E23" s="16">
-        <v>1000000006</v>
+        <v>1000000016</v>
       </c>
       <c r="F23" s="16" t="s">
         <v>11</v>
@@ -2133,12 +2133,50 @@
       <c r="S23"/>
       <c r="T23"/>
     </row>
+    <row r="24" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E24" s="16">
+        <v>1000000017</v>
+      </c>
+      <c r="F24" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H24" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I24"/>
+      <c r="J24"/>
+      <c r="K24"/>
+      <c r="L24"/>
+      <c r="M24"/>
+      <c r="N24"/>
+      <c r="O24"/>
+      <c r="P24"/>
+      <c r="Q24"/>
+      <c r="R24"/>
+      <c r="S24"/>
+      <c r="T24"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E24:E1048576 E1">
+  <conditionalFormatting sqref="E25:E1048576 E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D23" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
       <formula1>"  C.C,C.E"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2150,10 +2188,11 @@
     <hyperlink ref="H21" r:id="rId5" xr:uid="{FFC5DFBF-96D6-4958-B2C1-6CE7C345AEE1}"/>
     <hyperlink ref="H22" r:id="rId6" xr:uid="{2216D0DB-0C1D-4AC2-AA74-11ED5C4BE61A}"/>
     <hyperlink ref="H23" r:id="rId7" xr:uid="{579B0E13-F803-480F-AAF1-5CBF8DFDDFAC}"/>
+    <hyperlink ref="H24" r:id="rId8" xr:uid="{303A75CB-2E69-4046-940D-682C6608DDEA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
-  <legacyDrawing r:id="rId9"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
+  <legacyDrawing r:id="rId10"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2161,13 +2200,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F23</xm:sqref>
+          <xm:sqref>F2:F24</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A23</xm:sqref>
+          <xm:sqref>A2:A24</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2577,17 +2616,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe812fb7-574b-44ed-86d0-2d16146268c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="37e87451-74b3-4048-bfb9-7d04c800d92b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x010100F857DE7301CF354A96FB0056A5C63AD9" ma:contentTypeVersion="12" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="43c9f770e0b755e4ff9e568834e2ba42">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="fe812fb7-574b-44ed-86d0-2d16146268c6" xmlns:ns3="37e87451-74b3-4048-bfb9-7d04c800d92b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cd07d1d3ab751488f84a45fcf1374d77" ns2:_="" ns3:_="">
     <xsd:import namespace="fe812fb7-574b-44ed-86d0-2d16146268c6"/>
@@ -2788,6 +2816,17 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe812fb7-574b-44ed-86d0-2d16146268c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="37e87451-74b3-4048-bfb9-7d04c800d92b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427495A4-75F5-4F6F-B663-AAB6EE1BCE95}">
   <ds:schemaRefs>
@@ -2797,17 +2836,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46325D9C-2D75-4F78-B099-4FB167734A1F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe812fb7-574b-44ed-86d0-2d16146268c6"/>
-    <ds:schemaRef ds:uri="37e87451-74b3-4048-bfb9-7d04c800d92b"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8866EC1-C81B-4E43-AC87-31312149C8C8}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2824,4 +2852,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46325D9C-2D75-4F78-B099-4FB167734A1F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe812fb7-574b-44ed-86d0-2d16146268c6"/>
+    <ds:schemaRef ds:uri="37e87451-74b3-4048-bfb9-7d04c800d92b"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Solicitud correos prueba.xlsx
+++ b/Solicitud correos prueba.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ecrcampus-my.sharepoint.com/personal/carlos_perezc_ecr_edu_co/Documents/Backup ECR Tecnologia/Documents/GitHub/UserAutomationService/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B17BC385-8C02-4DB4-8A53-2335586956AE}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="8_{1433097B-FBD3-4C4A-A257-93A66F85079C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36DA69E2-8D6E-4206-B1DE-D5AE7F24996E}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="RlsOItVjzIoOeYUFU/eLw5DQouYEYDvsGdSxxjpsn7Vqy/bWq+hBVjSLC/Rv1KTSkLjsk4SBD6qU7dIN8cKa0Q==" workbookSaltValue="wbbWpA/jt21F3SOY0vH1TQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -114,7 +114,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="121">
   <si>
     <t>Escuela Colombiana de Rehabilitación</t>
   </si>
@@ -471,6 +471,12 @@
   </si>
   <si>
     <t>carpeca1998@hotmail.com</t>
+  </si>
+  <si>
+    <t>Rodrigo</t>
+  </si>
+  <si>
+    <t>Borgia</t>
   </si>
 </sst>
 </file>
@@ -1227,11 +1233,11 @@
   <sheetPr codeName="Hoja1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
-  <dimension ref="A1:T24"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C19" sqref="C19"/>
+      <selection pane="topRight" activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2171,12 +2177,50 @@
       <c r="S24"/>
       <c r="T24"/>
     </row>
+    <row r="25" spans="1:20" s="20" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="C25" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>98</v>
+      </c>
+      <c r="E25" s="16">
+        <v>1000000018</v>
+      </c>
+      <c r="F25" s="16" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="H25" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="I25"/>
+      <c r="J25"/>
+      <c r="K25"/>
+      <c r="L25"/>
+      <c r="M25"/>
+      <c r="N25"/>
+      <c r="O25"/>
+      <c r="P25"/>
+      <c r="Q25"/>
+      <c r="R25"/>
+      <c r="S25"/>
+      <c r="T25"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="E25:E1048576 E1">
+  <conditionalFormatting sqref="E26:E1048576 E1">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D24" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D25" xr:uid="{AD4AA420-3D35-43F9-9FA5-1C49A677BF2D}">
       <formula1>"  C.C,C.E"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2189,10 +2233,11 @@
     <hyperlink ref="H22" r:id="rId6" xr:uid="{2216D0DB-0C1D-4AC2-AA74-11ED5C4BE61A}"/>
     <hyperlink ref="H23" r:id="rId7" xr:uid="{579B0E13-F803-480F-AAF1-5CBF8DFDDFAC}"/>
     <hyperlink ref="H24" r:id="rId8" xr:uid="{303A75CB-2E69-4046-940D-682C6608DDEA}"/>
+    <hyperlink ref="H25" r:id="rId9" xr:uid="{C81B15B4-CBA4-402E-ABE7-9F9DD770DC17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
-  <legacyDrawing r:id="rId10"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId10"/>
+  <legacyDrawing r:id="rId11"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
@@ -2200,13 +2245,13 @@
           <x14:formula1>
             <xm:f>Hoja2!$B$2:$B$7</xm:f>
           </x14:formula1>
-          <xm:sqref>F2:F24</xm:sqref>
+          <xm:sqref>F2:F25</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{00000000-0002-0000-0000-000000000000}">
           <x14:formula1>
             <xm:f>Hoja2!$C$2:$C$7</xm:f>
           </x14:formula1>
-          <xm:sqref>A2:A24</xm:sqref>
+          <xm:sqref>A2:A25</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2607,12 +2652,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe812fb7-574b-44ed-86d0-2d16146268c6">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="37e87451-74b3-4048-bfb9-7d04c800d92b" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2817,20 +2864,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="fe812fb7-574b-44ed-86d0-2d16146268c6">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="37e87451-74b3-4048-bfb9-7d04c800d92b" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427495A4-75F5-4F6F-B663-AAB6EE1BCE95}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46325D9C-2D75-4F78-B099-4FB167734A1F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="fe812fb7-574b-44ed-86d0-2d16146268c6"/>
+    <ds:schemaRef ds:uri="37e87451-74b3-4048-bfb9-7d04c800d92b"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2855,12 +2903,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46325D9C-2D75-4F78-B099-4FB167734A1F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{427495A4-75F5-4F6F-B663-AAB6EE1BCE95}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="fe812fb7-574b-44ed-86d0-2d16146268c6"/>
-    <ds:schemaRef ds:uri="37e87451-74b3-4048-bfb9-7d04c800d92b"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>